--- a/Mathematical Model/Scarcity Model/parameters_w_50/a_diff_constant_prefilled/diff_filled_a1_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a_diff_constant_prefilled/diff_filled_a1_firstrun.xlsx
@@ -452,22 +452,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5517241379310345</v>
+        <v>0.5967741935483871</v>
       </c>
       <c r="C3">
-        <v>0.5108695652173914</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="D3">
-        <v>0.5087719298245614</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E3">
-        <v>0.5106382978723404</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="F3">
-        <v>0.6379310344827587</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="H3">
         <v>0.5</v>
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6559139784946236</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C4">
-        <v>0.4806201550387597</v>
+        <v>0.4462809917355372</v>
       </c>
       <c r="D4">
-        <v>0.5609756097560976</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="E4">
-        <v>0.4809160305343512</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="F4">
-        <v>0.7073170731707317</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="G4">
-        <v>0.4411764705882353</v>
+        <v>0.4758620689655172</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.675</v>
+        <v>0.6328125</v>
       </c>
       <c r="C5">
-        <v>0.4293478260869565</v>
+        <v>0.4414893617021277</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="E5">
-        <v>0.4726027397260274</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="F5">
-        <v>0.7407407407407407</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G5">
-        <v>0.4444444444444444</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6893939393939394</v>
+        <v>0.6830985915492958</v>
       </c>
       <c r="C6">
-        <v>0.4173553719008264</v>
+        <v>0.4316239316239316</v>
       </c>
       <c r="D6">
-        <v>0.5384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6">
-        <v>0.46</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="F6">
-        <v>0.6956521739130435</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G6">
-        <v>0.4615384615384616</v>
+        <v>0.4658385093167702</v>
       </c>
       <c r="H6">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6866666666666666</v>
+        <v>0.6643835616438356</v>
       </c>
       <c r="C7">
-        <v>0.4353312302839117</v>
+        <v>0.4006514657980456</v>
       </c>
       <c r="D7">
-        <v>0.5925925925925926</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="E7">
-        <v>0.4527027027027027</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F7">
-        <v>0.72</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G7">
-        <v>0.4871794871794872</v>
+        <v>0.475</v>
       </c>
       <c r="H7">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6838709677419355</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C8">
-        <v>0.4432989690721649</v>
+        <v>0.4259740259740259</v>
       </c>
       <c r="D8">
-        <v>0.5862068965517241</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="E8">
-        <v>0.4509803921568628</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="F8">
-        <v>0.6206896551724138</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="G8">
-        <v>0.4968152866242038</v>
+        <v>0.5</v>
       </c>
       <c r="H8">
         <v>0.44</v>
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6804733727810651</v>
+        <v>0.6815286624203821</v>
       </c>
       <c r="C9">
-        <v>0.4505263157894737</v>
+        <v>0.4501061571125266</v>
       </c>
       <c r="D9">
-        <v>0.4444444444444444</v>
+        <v>0.65</v>
       </c>
       <c r="E9">
-        <v>0.4430379746835443</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="F9">
-        <v>0.6296296296296297</v>
+        <v>0.4</v>
       </c>
       <c r="G9">
-        <v>0.5157232704402516</v>
+        <v>0.4903225806451613</v>
       </c>
       <c r="H9">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.702247191011236</v>
+        <v>0.7048192771084337</v>
       </c>
       <c r="C10">
-        <v>0.4523809523809524</v>
+        <v>0.445054945054945</v>
       </c>
       <c r="D10">
-        <v>0.4545454545454545</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E10">
-        <v>0.4522292993630573</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="F10">
-        <v>0.5217391304347826</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="G10">
-        <v>0.5094339622641509</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="H10">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7096774193548387</v>
+        <v>0.7116564417177914</v>
       </c>
       <c r="C11">
-        <v>0.4471544715447154</v>
+        <v>0.4446227929373997</v>
       </c>
       <c r="D11">
-        <v>0.4583333333333333</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="E11">
-        <v>0.4503311258278146</v>
+        <v>0.4926470588235294</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="G11">
-        <v>0.5131578947368421</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="H11">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6951871657754011</v>
+        <v>0.6855345911949685</v>
       </c>
       <c r="C12">
-        <v>0.4510086455331412</v>
+        <v>0.4463276836158192</v>
       </c>
       <c r="D12">
-        <v>0.4545454545454545</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="E12">
-        <v>0.4527027027027027</v>
+        <v>0.4962962962962963</v>
       </c>
       <c r="F12">
-        <v>0.4375</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="G12">
-        <v>0.52</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7094972067039106</v>
+        <v>0.6931818181818182</v>
       </c>
       <c r="C13">
-        <v>0.4558258642765685</v>
+        <v>0.4592220828105395</v>
       </c>
       <c r="D13">
-        <v>0.3448275862068966</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="E13">
-        <v>0.46</v>
+        <v>0.4963503649635037</v>
       </c>
       <c r="F13">
-        <v>0.3846153846153846</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="G13">
-        <v>0.5197368421052632</v>
+        <v>0.44</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6779661016949152</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C14">
-        <v>0.4574712643678161</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="D14">
-        <v>0.4583333333333333</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="E14">
-        <v>0.4640522875816994</v>
+        <v>0.475177304964539</v>
       </c>
       <c r="F14">
-        <v>0.3478260869565217</v>
+        <v>0.64</v>
       </c>
       <c r="G14">
-        <v>0.4904458598726115</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="H14">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6961325966850829</v>
+        <v>0.6910112359550562</v>
       </c>
       <c r="C15">
-        <v>0.4649214659685864</v>
+        <v>0.4541666666666667</v>
       </c>
       <c r="D15">
-        <v>0.3846153846153846</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="E15">
-        <v>0.432258064516129</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G15">
-        <v>0.4810126582278481</v>
+        <v>0.425</v>
       </c>
       <c r="H15">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6941176470588235</v>
+        <v>0.6858638743455497</v>
       </c>
       <c r="C16">
-        <v>0.4657004830917875</v>
+        <v>0.4633911368015414</v>
       </c>
       <c r="D16">
-        <v>0.5454545454545454</v>
+        <v>0.68</v>
       </c>
       <c r="E16">
-        <v>0.448051948051948</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="G16">
-        <v>0.4472049689440994</v>
+        <v>0.422360248447205</v>
       </c>
       <c r="H16">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.71875</v>
+        <v>0.6613756613756614</v>
       </c>
       <c r="C17">
-        <v>0.4680851063829787</v>
+        <v>0.4630630630630631</v>
       </c>
       <c r="D17">
-        <v>0.3793103448275862</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="E17">
-        <v>0.4423076923076923</v>
+        <v>0.4936708860759494</v>
       </c>
       <c r="F17">
-        <v>0.5263157894736842</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G17">
-        <v>0.44375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H17">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7368421052631579</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C18">
-        <v>0.4672131147540984</v>
+        <v>0.4682274247491639</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E18">
-        <v>0.4666666666666667</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="F18">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.453416149068323</v>
+        <v>0.4311377245508982</v>
       </c>
       <c r="H18">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6777777777777778</v>
+        <v>0.7151162790697675</v>
       </c>
       <c r="C19">
-        <v>0.4637904468412943</v>
+        <v>0.4629195940671351</v>
       </c>
       <c r="D19">
-        <v>0.6071428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="E19">
-        <v>0.4394904458598726</v>
+        <v>0.49375</v>
       </c>
       <c r="F19">
-        <v>0.3043478260869565</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="G19">
-        <v>0.4478527607361963</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="H19">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6892655367231638</v>
+        <v>0.7239263803680982</v>
       </c>
       <c r="C20">
-        <v>0.4749090909090909</v>
+        <v>0.4657933042212518</v>
       </c>
       <c r="D20">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E20">
-        <v>0.4294871794871795</v>
+        <v>0.4968944099378882</v>
       </c>
       <c r="F20">
-        <v>0.4210526315789473</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G20">
-        <v>0.4658385093167702</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,22 +920,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6835443037974683</v>
+        <v>0.6839080459770115</v>
       </c>
       <c r="C21">
-        <v>0.4760928961748634</v>
+        <v>0.4703071672354949</v>
       </c>
       <c r="D21">
-        <v>0.36</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E21">
-        <v>0.4367088607594937</v>
+        <v>0.5165562913907285</v>
       </c>
       <c r="F21">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.4662576687116564</v>
+        <v>0.4294871794871795</v>
       </c>
       <c r="H21">
         <v>0.47</v>
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6857142857142857</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="C22">
-        <v>0.4822923374114617</v>
+        <v>0.4749512036434613</v>
       </c>
       <c r="D22">
-        <v>0.3846153846153846</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="E22">
-        <v>0.4620689655172414</v>
+        <v>0.5099337748344371</v>
       </c>
       <c r="F22">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="G22">
-        <v>0.456953642384106</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="H22">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6850828729281768</v>
+        <v>0.6932515337423313</v>
       </c>
       <c r="C23">
-        <v>0.4807930607187113</v>
+        <v>0.4783950617283951</v>
       </c>
       <c r="D23">
-        <v>0.4324324324324325</v>
+        <v>0.5</v>
       </c>
       <c r="E23">
-        <v>0.4428571428571428</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="F23">
-        <v>0.4722222222222222</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="G23">
-        <v>0.46</v>
+        <v>0.4050632911392405</v>
       </c>
       <c r="H23">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.679144385026738</v>
+        <v>0.6708074534161491</v>
       </c>
       <c r="C24">
-        <v>0.4789567279193835</v>
+        <v>0.4755244755244755</v>
       </c>
       <c r="D24">
-        <v>0.3666666666666666</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="E24">
-        <v>0.4113475177304964</v>
+        <v>0.4903225806451613</v>
       </c>
       <c r="F24">
-        <v>0.4838709677419355</v>
+        <v>0.6</v>
       </c>
       <c r="G24">
-        <v>0.4620689655172414</v>
+        <v>0.391025641025641</v>
       </c>
       <c r="H24">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7071823204419889</v>
+        <v>0.7133757961783439</v>
       </c>
       <c r="C25">
-        <v>0.4787775891341257</v>
+        <v>0.4796203238414294</v>
       </c>
       <c r="D25">
-        <v>0.4827586206896552</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E25">
-        <v>0.4248366013071895</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="F25">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G25">
-        <v>0.4640522875816994</v>
+        <v>0.3821656050955414</v>
       </c>
       <c r="H25">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7383720930232558</v>
+        <v>0.6558441558441559</v>
       </c>
       <c r="C26">
-        <v>0.4785407725321889</v>
+        <v>0.4775401069518717</v>
       </c>
       <c r="D26">
-        <v>0.5925925925925926</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="E26">
-        <v>0.4161490683229814</v>
+        <v>0.464968152866242</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G26">
-        <v>0.4545454545454545</v>
+        <v>0.3881578947368421</v>
       </c>
       <c r="H26">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7159090909090909</v>
+        <v>0.7160493827160493</v>
       </c>
       <c r="C27">
-        <v>0.4768280123583934</v>
+        <v>0.4815762538382805</v>
       </c>
       <c r="D27">
-        <v>0.7</v>
+        <v>0.59375</v>
       </c>
       <c r="E27">
-        <v>0.4294871794871795</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="F27">
-        <v>0.6</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="G27">
-        <v>0.4472049689440994</v>
+        <v>0.3708609271523179</v>
       </c>
       <c r="H27">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7005649717514124</v>
+        <v>0.7023809523809523</v>
       </c>
       <c r="C28">
-        <v>0.4781529294935452</v>
+        <v>0.4768244575936884</v>
       </c>
       <c r="D28">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="E28">
+        <v>0.4863013698630137</v>
+      </c>
+      <c r="F28">
         <v>0.5833333333333334</v>
       </c>
-      <c r="E28">
-        <v>0.3959731543624161</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G28">
-        <v>0.4331210191082803</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="H28">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.726775956284153</v>
+        <v>0.68125</v>
       </c>
       <c r="C29">
-        <v>0.4792164357381749</v>
+        <v>0.4769157544026654</v>
       </c>
       <c r="D29">
-        <v>0.6206896551724138</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="E29">
-        <v>0.4039735099337748</v>
+        <v>0.487012987012987</v>
       </c>
       <c r="F29">
-        <v>0.4230769230769231</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G29">
-        <v>0.4551282051282051</v>
+        <v>0.3670886075949367</v>
       </c>
       <c r="H29">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7440476190476191</v>
+        <v>0.6961325966850829</v>
       </c>
       <c r="C30">
-        <v>0.477859778597786</v>
+        <v>0.4777828676133761</v>
       </c>
       <c r="D30">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E30">
-        <v>0.4248366013071895</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="F30">
-        <v>0.4347826086956522</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G30">
-        <v>0.4556962025316456</v>
+        <v>0.3821656050955414</v>
       </c>
       <c r="H30">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7209302325581395</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="C31">
-        <v>0.4781649757388619</v>
+        <v>0.4758314855875831</v>
       </c>
       <c r="D31">
-        <v>0.4782608695652174</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="E31">
-        <v>0.4331210191082803</v>
+        <v>0.474025974025974</v>
       </c>
       <c r="F31">
-        <v>0.4761904761904762</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G31">
-        <v>0.4634146341463415</v>
+        <v>0.3860759493670886</v>
       </c>
       <c r="H31">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7160493827160493</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="C32">
-        <v>0.4803250641573995</v>
+        <v>0.4764554794520548</v>
       </c>
       <c r="D32">
-        <v>0.45</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E32">
-        <v>0.4430379746835443</v>
+        <v>0.4640522875816994</v>
       </c>
       <c r="F32">
-        <v>0.5789473684210527</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="G32">
-        <v>0.4472049689440994</v>
+        <v>0.3803680981595092</v>
       </c>
       <c r="H32">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7368421052631579</v>
+        <v>0.6704545454545454</v>
       </c>
       <c r="C33">
-        <v>0.4816494845360825</v>
+        <v>0.4758935993349959</v>
       </c>
       <c r="D33">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="E33">
-        <v>0.4166666666666667</v>
+        <v>0.4645161290322581</v>
       </c>
       <c r="F33">
-        <v>0.5833333333333334</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="G33">
-        <v>0.4465408805031447</v>
+        <v>0.3765432098765432</v>
       </c>
       <c r="H33">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7439024390243902</v>
+        <v>0.6687116564417178</v>
       </c>
       <c r="C34">
-        <v>0.479550922213312</v>
+        <v>0.4749899959983994</v>
       </c>
       <c r="D34">
-        <v>0.52</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="E34">
-        <v>0.4177215189873418</v>
+        <v>0.4645161290322581</v>
       </c>
       <c r="F34">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G34">
-        <v>0.4430379746835443</v>
+        <v>0.3710691823899371</v>
       </c>
       <c r="H34">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6987951807228916</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C35">
-        <v>0.479627473806752</v>
+        <v>0.4760247486465584</v>
       </c>
       <c r="D35">
-        <v>0.5862068965517241</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="E35">
-        <v>0.3806451612903226</v>
+        <v>0.4834437086092715</v>
       </c>
       <c r="F35">
-        <v>0.5652173913043478</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G35">
-        <v>0.4585987261146497</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="H35">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7352941176470589</v>
+        <v>0.7150837988826816</v>
       </c>
       <c r="C36">
-        <v>0.4812854442344046</v>
+        <v>0.4764595103578154</v>
       </c>
       <c r="D36">
-        <v>0.6296296296296297</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="E36">
-        <v>0.3733333333333334</v>
+        <v>0.4685314685314685</v>
       </c>
       <c r="F36">
-        <v>0.8076923076923077</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G36">
-        <v>0.4810126582278481</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="H36">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7241379310344828</v>
+        <v>0.6844660194174758</v>
       </c>
       <c r="C37">
-        <v>0.4794117647058824</v>
+        <v>0.473935389133627</v>
       </c>
       <c r="D37">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="E37">
-        <v>0.3881578947368421</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="F37">
-        <v>0.7083333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G37">
-        <v>0.4743589743589743</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="H37">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7441860465116279</v>
+        <v>0.6683417085427136</v>
       </c>
       <c r="C38">
-        <v>0.4790247400501972</v>
+        <v>0.4746128916096507</v>
       </c>
       <c r="D38">
-        <v>0.65625</v>
+        <v>0.6</v>
       </c>
       <c r="E38">
-        <v>0.4013605442176871</v>
+        <v>0.5</v>
       </c>
       <c r="F38">
-        <v>0.6785714285714286</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G38">
-        <v>0.487012987012987</v>
+        <v>0.3757961783439491</v>
       </c>
       <c r="H38">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.751412429378531</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C39">
-        <v>0.4762735519888346</v>
+        <v>0.4776692254012561</v>
       </c>
       <c r="D39">
-        <v>0.5789473684210527</v>
+        <v>0.59375</v>
       </c>
       <c r="E39">
-        <v>0.425531914893617</v>
+        <v>0.5067567567567568</v>
       </c>
       <c r="F39">
-        <v>0.5161290322580645</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="G39">
-        <v>0.4693877551020408</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="H39">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7219251336898396</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C40">
-        <v>0.4760448521916412</v>
+        <v>0.4786440677966102</v>
       </c>
       <c r="D40">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E40">
-        <v>0.4444444444444444</v>
+        <v>0.5099337748344371</v>
       </c>
       <c r="F40">
-        <v>0.46875</v>
+        <v>0.52</v>
       </c>
       <c r="G40">
-        <v>0.4736842105263158</v>
+        <v>0.4037267080745341</v>
       </c>
       <c r="H40">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6935483870967742</v>
+        <v>0.6850828729281768</v>
       </c>
       <c r="C41">
-        <v>0.4774983454665784</v>
+        <v>0.4765650606358571</v>
       </c>
       <c r="D41">
-        <v>0.75</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E41">
-        <v>0.4489795918367347</v>
+        <v>0.4935897435897436</v>
       </c>
       <c r="F41">
-        <v>0.4583333333333333</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G41">
-        <v>0.4585987261146497</v>
+        <v>0.4125</v>
       </c>
       <c r="H41">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,22 +1466,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7096774193548387</v>
+        <v>0.7289156626506024</v>
       </c>
       <c r="C42">
-        <v>0.4804649660962221</v>
+        <v>0.4768</v>
       </c>
       <c r="D42">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="E42">
-        <v>0.4437086092715232</v>
+        <v>0.5159235668789809</v>
       </c>
       <c r="F42">
-        <v>0.4736842105263158</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="G42">
-        <v>0.4528301886792453</v>
+        <v>0.4050632911392405</v>
       </c>
       <c r="H42">
         <v>0.42</v>
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7058823529411765</v>
+        <v>0.7515151515151515</v>
       </c>
       <c r="C43">
-        <v>0.4805687203791469</v>
+        <v>0.4762052877138414</v>
       </c>
       <c r="D43">
-        <v>0.6129032258064516</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="E43">
-        <v>0.456953642384106</v>
+        <v>0.5286624203821656</v>
       </c>
       <c r="F43">
-        <v>0.44</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G43">
-        <v>0.4409937888198758</v>
+        <v>0.3850931677018634</v>
       </c>
       <c r="H43">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,22 +1518,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.6818181818181818</v>
+        <v>0.7175141242937854</v>
       </c>
       <c r="C44">
-        <v>0.4816301327570238</v>
+        <v>0.4761470677605591</v>
       </c>
       <c r="D44">
-        <v>0.5357142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E44">
-        <v>0.4689655172413793</v>
+        <v>0.5228758169934641</v>
       </c>
       <c r="F44">
-        <v>0.3809523809523809</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="G44">
-        <v>0.4387096774193548</v>
+        <v>0.3856209150326798</v>
       </c>
       <c r="H44">
         <v>0.42</v>
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6853932584269663</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C45">
-        <v>0.4828943384801695</v>
+        <v>0.4789865871833085</v>
       </c>
       <c r="D45">
-        <v>0.4516129032258064</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E45">
-        <v>0.4693877551020408</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="F45">
-        <v>0.4347826086956522</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="G45">
-        <v>0.4294871794871795</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="H45">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6961325966850829</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C46">
-        <v>0.4833774639599882</v>
+        <v>0.4806565064478312</v>
       </c>
       <c r="D46">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E46">
-        <v>0.4459459459459459</v>
+        <v>0.5314685314685315</v>
       </c>
       <c r="F46">
-        <v>0.4814814814814815</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="G46">
-        <v>0.4213836477987422</v>
+        <v>0.3669064748201439</v>
       </c>
       <c r="H46">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7212121212121212</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="C47">
-        <v>0.4819832804842894</v>
+        <v>0.4805491990846682</v>
       </c>
       <c r="D47">
-        <v>0.6</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="E47">
-        <v>0.4304635761589404</v>
+        <v>0.5140845070422535</v>
       </c>
       <c r="F47">
-        <v>0.5833333333333334</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G47">
-        <v>0.4276729559748428</v>
+        <v>0.3873239436619718</v>
       </c>
       <c r="H47">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6951871657754011</v>
+        <v>0.6761363636363636</v>
       </c>
       <c r="C48">
-        <v>0.4817415730337078</v>
+        <v>0.4824191279887483</v>
       </c>
       <c r="D48">
-        <v>0.5172413793103449</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="E48">
-        <v>0.4304635761589404</v>
+        <v>0.503448275862069</v>
       </c>
       <c r="F48">
-        <v>0.5833333333333334</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="G48">
-        <v>0.432258064516129</v>
+        <v>0.423841059602649</v>
       </c>
       <c r="H48">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6947368421052632</v>
+        <v>0.6740331491712708</v>
       </c>
       <c r="C49">
-        <v>0.4833887043189369</v>
+        <v>0.4822850865146938</v>
       </c>
       <c r="D49">
-        <v>0.6551724137931034</v>
+        <v>0.68</v>
       </c>
       <c r="E49">
-        <v>0.4383561643835616</v>
+        <v>0.4834437086092715</v>
       </c>
       <c r="F49">
-        <v>0.5357142857142857</v>
+        <v>0.625</v>
       </c>
       <c r="G49">
-        <v>0.4444444444444444</v>
+        <v>0.4177215189873418</v>
       </c>
       <c r="H49">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6825396825396826</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C50">
-        <v>0.4831613253666486</v>
+        <v>0.4822006472491909</v>
       </c>
       <c r="D50">
-        <v>0.4838709677419355</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E50">
-        <v>0.3904109589041096</v>
+        <v>0.4551282051282051</v>
       </c>
       <c r="F50">
-        <v>0.5161290322580645</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G50">
-        <v>0.4437086092715232</v>
+        <v>0.43125</v>
       </c>
       <c r="H50">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6808510638297872</v>
+        <v>0.703030303030303</v>
       </c>
       <c r="C51">
-        <v>0.4836479659664983</v>
+        <v>0.4814717477003942</v>
       </c>
       <c r="D51">
-        <v>0.4857142857142857</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E51">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="F51">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="G51">
+        <v>0.4556213017751479</v>
+      </c>
+      <c r="H51">
         <v>0.4</v>
-      </c>
-      <c r="F51">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="G51">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="H51">
-        <v>0.44</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.6793478260869565</v>
+        <v>0.6746987951807228</v>
       </c>
       <c r="C52">
-        <v>0.4833159541188738</v>
+        <v>0.4822804314329738</v>
       </c>
       <c r="D52">
-        <v>0.4482758620689655</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E52">
-        <v>0.3907284768211921</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F52">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G52">
-        <v>0.45</v>
+        <v>0.4491017964071856</v>
       </c>
       <c r="H52">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,22 +1752,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6763005780346821</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C53">
-        <v>0.4839367669556349</v>
+        <v>0.4824892920131015</v>
       </c>
       <c r="D53">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E53">
-        <v>0.392156862745098</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F53">
-        <v>0.7142857142857143</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="G53">
-        <v>0.4567901234567901</v>
+        <v>0.4606060606060606</v>
       </c>
       <c r="H53">
         <v>0.42</v>
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6927374301675978</v>
+        <v>0.6646706586826348</v>
       </c>
       <c r="C54">
-        <v>0.4835082458770615</v>
+        <v>0.482408325074331</v>
       </c>
       <c r="D54">
-        <v>0.391304347826087</v>
+        <v>0.64</v>
       </c>
       <c r="E54">
-        <v>0.4076433121019108</v>
+        <v>0.4394904458598726</v>
       </c>
       <c r="F54">
         <v>0.6363636363636364</v>
       </c>
       <c r="G54">
-        <v>0.4606060606060606</v>
+        <v>0.4601226993865031</v>
       </c>
       <c r="H54">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,22 +1804,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6585365853658537</v>
+        <v>0.6704545454545454</v>
       </c>
       <c r="C55">
-        <v>0.4820638820638821</v>
+        <v>0.4812560856864654</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="E55">
-        <v>0.4150943396226415</v>
+        <v>0.4451612903225807</v>
       </c>
       <c r="F55">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="G55">
-        <v>0.4606060606060606</v>
+        <v>0.4591194968553459</v>
       </c>
       <c r="H55">
         <v>0.44</v>
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.6918604651162791</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C56">
-        <v>0.4848703170028819</v>
+        <v>0.481659074562455</v>
       </c>
       <c r="D56">
-        <v>0.5714285714285714</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="E56">
-        <v>0.4171779141104294</v>
+        <v>0.461038961038961</v>
       </c>
       <c r="F56">
-        <v>0.5909090909090909</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G56">
-        <v>0.4670658682634731</v>
+        <v>0.4777070063694268</v>
       </c>
       <c r="H56">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7048192771084337</v>
+        <v>0.6540880503144654</v>
       </c>
       <c r="C57">
-        <v>0.4839243498817967</v>
+        <v>0.482977224700634</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E57">
-        <v>0.4150943396226415</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="F57">
-        <v>0.5263157894736842</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G57">
-        <v>0.48125</v>
+        <v>0.4774193548387097</v>
       </c>
       <c r="H57">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7094972067039106</v>
+        <v>0.6121212121212121</v>
       </c>
       <c r="C58">
-        <v>0.4837737598516458</v>
+        <v>0.4833871712044301</v>
       </c>
       <c r="D58">
-        <v>0.4615384615384616</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E58">
-        <v>0.445859872611465</v>
+        <v>0.4304635761589404</v>
       </c>
       <c r="F58">
-        <v>0.5909090909090909</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="G58">
-        <v>0.4873417721518987</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="H58">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6867469879518072</v>
+        <v>0.6706586826347305</v>
       </c>
       <c r="C59">
-        <v>0.4822288465948177</v>
+        <v>0.4839809134287662</v>
       </c>
       <c r="D59">
-        <v>0.4782608695652174</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E59">
-        <v>0.4342105263157895</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="F59">
-        <v>0.3333333333333333</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G59">
-        <v>0.4683544303797468</v>
+        <v>0.4675324675324675</v>
       </c>
       <c r="H59">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6609195402298851</v>
+        <v>0.6855345911949685</v>
       </c>
       <c r="C60">
-        <v>0.4828905898244034</v>
+        <v>0.4818039741013619</v>
       </c>
       <c r="D60">
-        <v>0.5769230769230769</v>
+        <v>0.6</v>
       </c>
       <c r="E60">
-        <v>0.4331210191082803</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F60">
-        <v>0.4814814814814815</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="G60">
-        <v>0.4840764331210191</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="H60">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6792452830188679</v>
+        <v>0.6820809248554913</v>
       </c>
       <c r="C61">
-        <v>0.4839139116929221</v>
+        <v>0.4816684961580681</v>
       </c>
       <c r="D61">
-        <v>0.7083333333333334</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="E61">
-        <v>0.4155844155844156</v>
+        <v>0.4203821656050956</v>
       </c>
       <c r="F61">
-        <v>0.5185185185185185</v>
+        <v>0.64</v>
       </c>
       <c r="G61">
-        <v>0.4580645161290323</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="H61">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7468354430379747</v>
+        <v>0.6494252873563219</v>
       </c>
       <c r="C62">
-        <v>0.483435047951177</v>
+        <v>0.4822202948829141</v>
       </c>
       <c r="D62">
-        <v>0.6521739130434783</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="E62">
-        <v>0.3947368421052632</v>
+        <v>0.44</v>
       </c>
       <c r="F62">
-        <v>0.5416666666666666</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="G62">
-        <v>0.456953642384106</v>
+        <v>0.5</v>
       </c>
       <c r="H62">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7672955974842768</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="C63">
-        <v>0.4814894072330409</v>
+        <v>0.4835610589239966</v>
       </c>
       <c r="D63">
-        <v>0.6206896551724138</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E63">
-        <v>0.40625</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="F63">
-        <v>0.6206896551724138</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="G63">
-        <v>0.4528301886792453</v>
+        <v>0.4967741935483871</v>
       </c>
       <c r="H63">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7309941520467836</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="C64">
-        <v>0.4800253646163602</v>
+        <v>0.483105981112277</v>
       </c>
       <c r="D64">
         <v>0.625</v>
       </c>
       <c r="E64">
-        <v>0.4193548387096774</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F64">
-        <v>0.5263157894736842</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G64">
-        <v>0.4516129032258064</v>
+        <v>0.5</v>
       </c>
       <c r="H64">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7111111111111111</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C65">
-        <v>0.4801918265221017</v>
+        <v>0.4827157938315049</v>
       </c>
       <c r="D65">
+        <v>0.75</v>
+      </c>
+      <c r="E65">
+        <v>0.4394904458598726</v>
+      </c>
+      <c r="F65">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E65">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="F65">
-        <v>0.5384615384615384</v>
-      </c>
       <c r="G65">
-        <v>0.4691358024691358</v>
+        <v>0.4774193548387097</v>
       </c>
       <c r="H65">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7354497354497355</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="C66">
-        <v>0.4808641975308642</v>
+        <v>0.4833707406651704</v>
       </c>
       <c r="D66">
-        <v>0.68</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E66">
-        <v>0.4193548387096774</v>
+        <v>0.4220779220779221</v>
       </c>
       <c r="F66">
-        <v>0.5833333333333334</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G66">
-        <v>0.4556962025316456</v>
+        <v>0.4620253164556962</v>
       </c>
       <c r="H66">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.711340206185567</v>
+        <v>0.6954022988505747</v>
       </c>
       <c r="C67">
-        <v>0.4802110817941952</v>
+        <v>0.4824261899979916</v>
       </c>
       <c r="D67">
-        <v>0.5517241379310345</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E67">
-        <v>0.4545454545454545</v>
+        <v>0.4258064516129032</v>
       </c>
       <c r="F67">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="G67">
-        <v>0.4556962025316456</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="H67">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6956521739130435</v>
+        <v>0.6848484848484848</v>
       </c>
       <c r="C68">
-        <v>0.4808578873521748</v>
+        <v>0.4833465503568596</v>
       </c>
       <c r="D68">
-        <v>0.4642857142857143</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="E68">
-        <v>0.4697986577181208</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="F68">
-        <v>0.53125</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G68">
-        <v>0.4415584415584415</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="H68">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6936416184971098</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C69">
-        <v>0.4819419775014802</v>
+        <v>0.484883947727716</v>
       </c>
       <c r="D69">
-        <v>0.5666666666666667</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E69">
-        <v>0.4666666666666667</v>
+        <v>0.4331210191082803</v>
       </c>
       <c r="F69">
-        <v>0.5483870967741935</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="G69">
-        <v>0.423841059602649</v>
+        <v>0.4506172839506173</v>
       </c>
       <c r="H69">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6988636363636364</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="C70">
-        <v>0.4823689849990259</v>
+        <v>0.4850645596454037</v>
       </c>
       <c r="D70">
-        <v>0.5757575757575758</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E70">
-        <v>0.4620689655172414</v>
+        <v>0.44375</v>
       </c>
       <c r="F70">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G70">
-        <v>0.4161073825503356</v>
+        <v>0.437125748502994</v>
       </c>
       <c r="H70">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7235294117647059</v>
+        <v>0.672316384180791</v>
       </c>
       <c r="C71">
-        <v>0.4814601344860711</v>
+        <v>0.4831717056474615</v>
       </c>
       <c r="D71">
-        <v>0.5757575757575758</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="E71">
-        <v>0.4468085106382979</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="F71">
-        <v>0.6153846153846154</v>
+        <v>0.4375</v>
       </c>
       <c r="G71">
-        <v>0.4026845637583892</v>
+        <v>0.4201183431952663</v>
       </c>
       <c r="H71">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7093023255813954</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="C72">
-        <v>0.4815375875781102</v>
+        <v>0.4843015604436924</v>
       </c>
       <c r="D72">
-        <v>0.6129032258064516</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E72">
-        <v>0.4513888888888889</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="F72">
-        <v>0.5666666666666667</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G72">
-        <v>0.4105960264900662</v>
+        <v>0.4424242424242424</v>
       </c>
       <c r="H72">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7125</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C73">
-        <v>0.4821595367083878</v>
+        <v>0.4832252085264133</v>
       </c>
       <c r="D73">
-        <v>0.5172413793103449</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="E73">
-        <v>0.4333333333333333</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="F73">
-        <v>0.4827586206896552</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G73">
-        <v>0.4304635761589404</v>
+        <v>0.4233128834355828</v>
       </c>
       <c r="H73">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6993865030674846</v>
+        <v>0.6772486772486772</v>
       </c>
       <c r="C74">
-        <v>0.4821559970566593</v>
+        <v>0.4839596700274977</v>
       </c>
       <c r="D74">
-        <v>0.5454545454545454</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="E74">
-        <v>0.4444444444444444</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="F74">
-        <v>0.68</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="G74">
-        <v>0.4444444444444444</v>
+        <v>0.4233128834355828</v>
       </c>
       <c r="H74">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6802325581395349</v>
+        <v>0.6775956284153005</v>
       </c>
       <c r="C75">
-        <v>0.4830277727355237</v>
+        <v>0.484547261883246</v>
       </c>
       <c r="D75">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="E75">
-        <v>0.4478527607361963</v>
+        <v>0.4585987261146497</v>
       </c>
       <c r="F75">
-        <v>0.6296296296296297</v>
+        <v>0.6</v>
       </c>
       <c r="G75">
-        <v>0.4347826086956522</v>
+        <v>0.4233128834355828</v>
       </c>
       <c r="H75">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6740331491712708</v>
+        <v>0.6684210526315789</v>
       </c>
       <c r="C76">
-        <v>0.4839461883408072</v>
+        <v>0.4847457627118644</v>
       </c>
       <c r="D76">
-        <v>0.6818181818181818</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="E76">
-        <v>0.4417177914110429</v>
+        <v>0.4585987261146497</v>
       </c>
       <c r="F76">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="G76">
-        <v>0.4382716049382716</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H76">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7028571428571428</v>
+        <v>0.7071823204419889</v>
       </c>
       <c r="C77">
-        <v>0.4849183818310859</v>
+        <v>0.4856083348048738</v>
       </c>
       <c r="D77">
-        <v>0.6190476190476191</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="E77">
-        <v>0.4556962025316456</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="F77">
-        <v>0.6111111111111112</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G77">
-        <v>0.4409937888198758</v>
+        <v>0.4484848484848485</v>
       </c>
       <c r="H77">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7043010752688172</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="C78">
-        <v>0.4846625766871165</v>
+        <v>0.4845522778844475</v>
       </c>
       <c r="D78">
-        <v>0.4761904761904762</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="E78">
-        <v>0.4645161290322581</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="F78">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="G78">
-        <v>0.44375</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="H78">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7052631578947368</v>
+        <v>0.672316384180791</v>
       </c>
       <c r="C79">
-        <v>0.4844591074839382</v>
+        <v>0.4854771784232365</v>
       </c>
       <c r="D79">
-        <v>0.5555555555555556</v>
+        <v>0.6875</v>
       </c>
       <c r="E79">
-        <v>0.4743589743589743</v>
+        <v>0.4105960264900662</v>
       </c>
       <c r="F79">
-        <v>0.4545454545454545</v>
+        <v>0.64</v>
       </c>
       <c r="G79">
-        <v>0.4591194968553459</v>
+        <v>0.4585987261146497</v>
       </c>
       <c r="H79">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.7134502923976608</v>
+        <v>0.68</v>
       </c>
       <c r="C80">
-        <v>0.4842195540308748</v>
+        <v>0.4865926558497011</v>
       </c>
       <c r="D80">
-        <v>0.6296296296296297</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="E80">
-        <v>0.4551282051282051</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="F80">
-        <v>0.5217391304347826</v>
+        <v>0.76</v>
       </c>
       <c r="G80">
-        <v>0.4506172839506173</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="H80">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,22 +2480,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6787878787878788</v>
+        <v>0.7</v>
       </c>
       <c r="C81">
-        <v>0.4841820334968702</v>
+        <v>0.486322188449848</v>
       </c>
       <c r="D81">
-        <v>0.7916666666666666</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E81">
-        <v>0.4589041095890411</v>
+        <v>0.4097222222222222</v>
       </c>
       <c r="F81">
-        <v>0.5789473684210527</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="G81">
-        <v>0.4545454545454545</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="H81">
         <v>0.46</v>
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6702127659574468</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C82">
-        <v>0.4857954545454545</v>
+        <v>0.4858333333333333</v>
       </c>
       <c r="D82">
-        <v>0.7297297297297297</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E82">
-        <v>0.4383561643835616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F82">
-        <v>0.5454545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="G82">
-        <v>0.4709677419354839</v>
+        <v>0.44</v>
       </c>
       <c r="H82">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6887755102040817</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C83">
-        <v>0.4852404643449419</v>
+        <v>0.4874917709019091</v>
       </c>
       <c r="D83">
-        <v>0.6578947368421053</v>
+        <v>0.75</v>
       </c>
       <c r="E83">
-        <v>0.4647887323943662</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="F83">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G83">
-        <v>0.4630872483221476</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="H83">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6939890710382514</v>
+        <v>0.6815286624203821</v>
       </c>
       <c r="C84">
-        <v>0.4838974696023661</v>
+        <v>0.4864600326264274</v>
       </c>
       <c r="D84">
-        <v>0.6470588235294118</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E84">
-        <v>0.4895104895104895</v>
+        <v>0.4503311258278146</v>
       </c>
       <c r="F84">
-        <v>0.53125</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="G84">
-        <v>0.4473684210526316</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="H84">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6766169154228856</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="C85">
-        <v>0.4847551086603957</v>
+        <v>0.4873366672043878</v>
       </c>
       <c r="D85">
-        <v>0.6451612903225806</v>
+        <v>0.625</v>
       </c>
       <c r="E85">
-        <v>0.5205479452054794</v>
+        <v>0.4451612903225807</v>
       </c>
       <c r="F85">
-        <v>0.5416666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="G85">
-        <v>0.436241610738255</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="H85">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6612903225806451</v>
+        <v>0.68</v>
       </c>
       <c r="C86">
-        <v>0.4849654285254864</v>
+        <v>0.4876138724628416</v>
       </c>
       <c r="D86">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="E86">
-        <v>0.5131578947368421</v>
+        <v>0.4551282051282051</v>
       </c>
       <c r="F86">
-        <v>0.4230769230769231</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G86">
-        <v>0.45</v>
+        <v>0.4873417721518987</v>
       </c>
       <c r="H86">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.711864406779661</v>
+        <v>0.7278481012658228</v>
       </c>
       <c r="C87">
-        <v>0.4867691332593884</v>
+        <v>0.4875850071168749</v>
       </c>
       <c r="D87">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="E87">
-        <v>0.5228758169934641</v>
+        <v>0.4671052631578947</v>
       </c>
       <c r="F87">
-        <v>0.4705882352941176</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="G87">
-        <v>0.4625</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="H87">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7</v>
+        <v>0.7542857142857143</v>
       </c>
       <c r="C88">
-        <v>0.4855934857500783</v>
+        <v>0.486815415821501</v>
       </c>
       <c r="D88">
-        <v>0.5217391304347826</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E88">
-        <v>0.5031055900621118</v>
+        <v>0.4774193548387097</v>
       </c>
       <c r="F88">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G88">
-        <v>0.4529411764705882</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="H88">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6842105263157895</v>
+        <v>0.7341040462427746</v>
       </c>
       <c r="C89">
-        <v>0.4855195911413969</v>
+        <v>0.4853601859024013</v>
       </c>
       <c r="D89">
-        <v>0.5238095238095238</v>
+        <v>0.5</v>
       </c>
       <c r="E89">
-        <v>0.5030674846625767</v>
+        <v>0.4904458598726115</v>
       </c>
       <c r="F89">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G89">
-        <v>0.4550898203592814</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="H89">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.6875</v>
+        <v>0.6850828729281768</v>
       </c>
       <c r="C90">
-        <v>0.4861387655077347</v>
+        <v>0.4858150590400245</v>
       </c>
       <c r="D90">
-        <v>0.5909090909090909</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E90">
-        <v>0.5121951219512195</v>
+        <v>0.4967741935483871</v>
       </c>
       <c r="F90">
-        <v>0.5625</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="G90">
-        <v>0.4385964912280702</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="H90">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6589595375722543</v>
+        <v>0.6761363636363636</v>
       </c>
       <c r="C91">
-        <v>0.485575463103553</v>
+        <v>0.4860751788160098</v>
       </c>
       <c r="D91">
-        <v>0.3125</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="E91">
-        <v>0.5121951219512195</v>
+        <v>0.474025974025974</v>
       </c>
       <c r="F91">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G91">
-        <v>0.4411764705882353</v>
+        <v>0.4777070063694268</v>
       </c>
       <c r="H91">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C92">
-        <v>0.4867867867867868</v>
+        <v>0.4866817155756208</v>
       </c>
       <c r="D92">
-        <v>0.5</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="E92">
-        <v>0.5182926829268293</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="F92">
-        <v>0.5652173913043478</v>
+        <v>0.64</v>
       </c>
       <c r="G92">
-        <v>0.4451219512195122</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="H92">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7407407407407407</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C93">
-        <v>0.4861337683523654</v>
+        <v>0.4854079809410363</v>
       </c>
       <c r="D93">
-        <v>0.375</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="E93">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F93">
-        <v>0.6</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="G93">
-        <v>0.4331210191082803</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="H93">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7345679012345679</v>
+        <v>0.6380368098159509</v>
       </c>
       <c r="C94">
-        <v>0.4856051703877791</v>
+        <v>0.4859331271173958</v>
       </c>
       <c r="D94">
-        <v>0.4230769230769231</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="E94">
-        <v>0.5032258064516129</v>
+        <v>0.4645161290322581</v>
       </c>
       <c r="F94">
-        <v>0.5909090909090909</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="G94">
-        <v>0.4465408805031447</v>
+        <v>0.4375</v>
       </c>
       <c r="H94">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.7159763313609467</v>
+        <v>0.6705882352941176</v>
       </c>
       <c r="C95">
-        <v>0.485456660849331</v>
+        <v>0.4871757505100553</v>
       </c>
       <c r="D95">
-        <v>0.4642857142857143</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E95">
-        <v>0.4966887417218543</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F95">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="G95">
-        <v>0.4451612903225807</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="H95">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7471264367816092</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C96">
-        <v>0.4857307581435572</v>
+        <v>0.4861934364608935</v>
       </c>
       <c r="D96">
-        <v>0.4516129032258064</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="E96">
-        <v>0.4966887417218543</v>
+        <v>0.477124183006536</v>
       </c>
       <c r="F96">
-        <v>0.5172413793103449</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G96">
-        <v>0.4294871794871795</v>
+        <v>0.4493670886075949</v>
       </c>
       <c r="H96">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2899,22 +2899,22 @@
         <v>0.7262569832402235</v>
       </c>
       <c r="C97">
-        <v>0.4840182648401826</v>
+        <v>0.484878887774115</v>
       </c>
       <c r="D97">
-        <v>0.4</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E97">
-        <v>0.477124183006536</v>
+        <v>0.4551282051282051</v>
       </c>
       <c r="F97">
-        <v>0.4615384615384616</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="G97">
-        <v>0.4358974358974359</v>
+        <v>0.464968152866242</v>
       </c>
       <c r="H97">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.7317073170731707</v>
+        <v>0.72</v>
       </c>
       <c r="C98">
-        <v>0.483231923022499</v>
+        <v>0.4832977967306326</v>
       </c>
       <c r="D98">
-        <v>0.7272727272727273</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E98">
-        <v>0.4967741935483871</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="F98">
-        <v>0.6296296296296297</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="G98">
-        <v>0.435064935064935</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="H98">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7289156626506024</v>
+        <v>0.7175141242937854</v>
       </c>
       <c r="C99">
-        <v>0.4834381551362684</v>
+        <v>0.4840118326524863</v>
       </c>
       <c r="D99">
-        <v>0.8333333333333334</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="E99">
-        <v>0.4905660377358491</v>
+        <v>0.4353741496598639</v>
       </c>
       <c r="F99">
-        <v>0.48</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G99">
-        <v>0.4258064516129032</v>
+        <v>0.4503311258278146</v>
       </c>
       <c r="H99">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6988636363636364</v>
+        <v>0.7085714285714285</v>
       </c>
       <c r="C100">
-        <v>0.4832940524053792</v>
+        <v>0.4835241552638928</v>
       </c>
       <c r="D100">
-        <v>0.76</v>
+        <v>0.625</v>
       </c>
       <c r="E100">
-        <v>0.4936708860759494</v>
+        <v>0.4379084967320261</v>
       </c>
       <c r="F100">
-        <v>0.4074074074074074</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G100">
-        <v>0.4339622641509434</v>
+        <v>0.4256756756756757</v>
       </c>
       <c r="H100">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.7126436781609196</v>
+        <v>0.6954022988505747</v>
       </c>
       <c r="C101">
-        <v>0.48367543738807</v>
+        <v>0.4840359364201797</v>
       </c>
       <c r="D101">
-        <v>0.625</v>
+        <v>0.59375</v>
       </c>
       <c r="E101">
-        <v>0.4866666666666667</v>
+        <v>0.4503311258278146</v>
       </c>
       <c r="F101">
-        <v>0.4615384615384616</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="G101">
-        <v>0.4066666666666667</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="H101">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
